--- a/Sample Docs/Subjects.xlsx
+++ b/Sample Docs/Subjects.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamsi\Desktop\GIT\Resonance\Sample Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamsi\Downloads\Data_v3\Data_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C4F470-A772-430B-AD2D-17D8957E7E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FF921-6CD4-4B30-8D5D-51E3D89C97E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$40</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -33,12 +36,6 @@
     <t>Thumbnail</t>
   </si>
   <si>
-    <t>Class 11/NEET</t>
-  </si>
-  <si>
-    <t>Class 12/NEET</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -49,13 +46,85 @@
   </si>
   <si>
     <t>Zoology</t>
+  </si>
+  <si>
+    <t>65b136</t>
+  </si>
+  <si>
+    <t>7B5E2A</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Class VI</t>
+  </si>
+  <si>
+    <t>Class VII</t>
+  </si>
+  <si>
+    <t>Class VIII</t>
+  </si>
+  <si>
+    <t>Class IX</t>
+  </si>
+  <si>
+    <t>Class X</t>
+  </si>
+  <si>
+    <t>Mental Ability</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>00abf0</t>
+  </si>
+  <si>
+    <t>ebc8c8</t>
+  </si>
+  <si>
+    <t>df2323</t>
+  </si>
+  <si>
+    <t>B7410E</t>
+  </si>
+  <si>
+    <t>399a17</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>Class 11</t>
+  </si>
+  <si>
+    <t>Class 12</t>
+  </si>
+  <si>
+    <t>JEE</t>
+  </si>
+  <si>
+    <t>HighSchool</t>
+  </si>
+  <si>
+    <t>NEET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +138,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -86,29 +162,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,73 +463,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA60C42-192B-42B6-8955-A59C8530898C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
